--- a/biology/Botanique/Georg_Hans_Emmo_Wolfgang_Hieronymus/Georg_Hans_Emmo_Wolfgang_Hieronymus.xlsx
+++ b/biology/Botanique/Georg_Hans_Emmo_Wolfgang_Hieronymus/Georg_Hans_Emmo_Wolfgang_Hieronymus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Hans Emmo Wolfgang Hieronymus est un botaniste et important collecteur allemand né en 1846 à Schöneiche en province de Silésie et décédé en 1921 à Berlin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Hans Emmo Wolfgang Hieronymus est un botaniste et important collecteur allemand né en 1846 à Schöneiche en province de Silésie et décédé en 1921 à Berlin.
 Il étudie la médecine à Zurich et Berne de 1868 à 1870 et s'intéresse très tôt à la botanique. Il passe son doctorat à l'université de Halle en 1872.
 De 1874 à 1883, il est professeur de botanique à Córdoba, en Argentine, où il effectue d'importantes collectes avec G. Niederlein. Ensuite, il s'installe à Breslau de 1883 à 1892, puis à Berlin où il devient curateur du jardin botanique et du musée du jardin botanique à partir de 1892. Il y édite le journal Hedwigia pendant 28 ans.
 Il était spécialiste des fougères et algues. Il a constitué d'importantes collections de plantes d'Europe centrale et d'Amérique du Sud.
@@ -514,7 +526,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beitrage Zur Kenntniss Der Centrolepidaceen - 1873
 Icones et descriptiones plantarum: quae sponte in Republica Argentina crescunt. Abbildungen und beschreibungen von pflanzen, welche in der Republik Argentina wildwachsend gefunden werden - Academia Nacional de Ciencias en Córdoba, 1885
@@ -546,7 +560,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre Hieronymiella lui a été dédié ainsi que le grand nombre de plantes suivantes :
 </t>
